--- a/PES/SRB Invoices/1043  SST Invoice for UEP (retention amount).xlsx
+++ b/PES/SRB Invoices/1043  SST Invoice for UEP (retention amount).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958B7BCB-6A40-4AA6-970E-DC75FA005925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF1F0AD-140E-4A92-A78A-E01FB24B5C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,10 +88,10 @@
     <t>S4312149-7</t>
   </si>
   <si>
-    <t>Dated: 11-06-2024</t>
-  </si>
-  <si>
     <t>Invoice # 1043</t>
+  </si>
+  <si>
+    <t>Dated: 24-06-2024</t>
   </si>
 </sst>
 </file>
@@ -422,6 +422,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,27 +490,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -799,7 +799,7 @@
   <dimension ref="A6:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:H29"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -846,16 +846,16 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -875,11 +875,11 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="F13" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -888,11 +888,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
+      <c r="F14" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -912,85 +912,85 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="31"/>
       <c r="E17" s="4"/>
       <c r="F17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="52"/>
+      <c r="H17" s="59"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="32"/>
       <c r="E18" s="3"/>
       <c r="F18" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="54"/>
+      <c r="H18" s="61"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="23"/>
       <c r="E19" s="3"/>
       <c r="F19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="33"/>
       <c r="E20" s="3"/>
       <c r="F20" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="45"/>
+      <c r="H20" s="52"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1015,11 +1015,11 @@
       <c r="A24" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="27" t="s">
         <v>12</v>
       </c>
@@ -1047,9 +1047,9 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="9"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -1058,9 +1058,9 @@
     </row>
     <row r="27" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1069,25 +1069,25 @@
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
+      <c r="A28" s="50">
         <v>1</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62">
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46">
         <v>1383462</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F28" s="47">
         <v>0.13</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="48">
         <f>E28*13%</f>
         <v>179850.06</v>
       </c>
-      <c r="H28" s="51">
+      <c r="H28" s="58">
         <f>E28+G28</f>
         <v>1563312.06</v>
       </c>
@@ -1096,14 +1096,14 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="51"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="58"/>
       <c r="I29" s="8"/>
       <c r="J29" s="37"/>
       <c r="K29" s="8"/>
@@ -1189,11 +1189,11 @@
     </row>
     <row r="36" spans="1:19" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="30"/>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="16">
         <f>SUM(E28:E34)</f>
         <v>1383462</v>
@@ -1294,11 +1294,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B18:C18"/>
@@ -1315,6 +1310,11 @@
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B26:D27"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
